--- a/HORIZONTINA.xlsx
+++ b/HORIZONTINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{569B53EC-C4F8-4D6B-A540-3F215B75C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2398422F-A7B5-49E3-B268-8F114CD406FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1071,7 +1058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1131,36 +1118,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,14 +1162,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{36174367-CE3A-4BE0-98AD-D2550C79F03C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CCAE03AA-8263-4AF3-AE51-417E8FB2CD13}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811E28E5-DA65-485E-B60F-13BAE1A5F7E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8284211-988E-4868-8AE7-A19D551CB87C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D940DA7B-E040-451A-8AAD-50EAD86F31F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8953783D-D340-4FB9-8081-9A6E5C9ED0E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E1BE45-A00C-4E65-8091-D44FE48450D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034E867D-017C-4561-B60D-406484BADD5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCA7330-C406-B9F4-B97C-419037CC45FF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902224E9-645B-CF8E-7E2A-ACFB98EDBA2C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1454,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0913CA1-3E44-C252-7023-E22E50301C14}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F3C456-6C09-663B-3F62-B1DFB4BEAE67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1473,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DFD00BA-8DD1-2B0D-C4A9-27951CDC4262}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E99FA67-236B-BB92-EC97-BAB9F7C9166C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDA49F4-E66C-F86F-8F75-2C554AD81AE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21DF382-F848-859F-3514-C6089F899D48}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8AE8FD6-0A3B-D5B6-37A8-89A10ACB6A44}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE99905B-A0CF-9C26-DDCA-9916955F8E1E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1578,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC726E3-8D65-48DB-9849-A81E6BD98A84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D915F4-19C4-406B-A057-96FC3F9179B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88066C4-5D6C-4C15-A6E0-8252A3161681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1FA802-D08F-4615-A13D-C600E080F2CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6557BC8-1CC3-4A47-A596-B065990E8F10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D4741C-DAAC-4447-835D-818353A87993}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87099AA-335F-4860-B243-DD40C0ED1DDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F0588-F212-4C61-9FDD-4DE182B8C127}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1984,98 +1942,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5339,19 +5297,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5374,46 +5332,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5438,54 +5396,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5496,43 +5455,43 @@
       <c r="B2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45261</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>2364</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>7694</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>1147</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>299</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5563,25 +5522,24 @@
       <c r="B1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="32">
         <v>19</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="35">
-        <v>19</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>1.2564475598465809E-3</v>
       </c>
     </row>

--- a/HORIZONTINA.xlsx
+++ b/HORIZONTINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2398422F-A7B5-49E3-B268-8F114CD406FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09500A23-A280-43EE-8BCC-77CFE48A8275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CCAE03AA-8263-4AF3-AE51-417E8FB2CD13}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FAA495F5-F9A2-4A8C-BE08-7C3C4780C470}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8284211-988E-4868-8AE7-A19D551CB87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3929002C-7D95-4D51-85AC-CE705B6A0989}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8953783D-D340-4FB9-8081-9A6E5C9ED0E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA111939-905C-403E-B3EE-AB2B97B71FB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034E867D-017C-4561-B60D-406484BADD5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F7CAD7-44AD-475C-B605-B52FBB68FF96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902224E9-645B-CF8E-7E2A-ACFB98EDBA2C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F19F9B-410E-F5F5-0EDB-B3D3566052D7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F3C456-6C09-663B-3F62-B1DFB4BEAE67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4C7B6B-FB37-7D70-11D1-BC3105992273}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E99FA67-236B-BB92-EC97-BAB9F7C9166C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B939D68-AC66-ECE0-5109-E324D55C76C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21DF382-F848-859F-3514-C6089F899D48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A07D9E-F252-C7C3-7458-B938FF78CC50}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE99905B-A0CF-9C26-DDCA-9916955F8E1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9524F9B0-0BD6-4060-AA01-F404C3B54EF1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D915F4-19C4-406B-A057-96FC3F9179B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC46546E-141F-43C3-90E6-21C26EB7FA01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1FA802-D08F-4615-A13D-C600E080F2CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE62BD9-6196-415D-A886-F0EA975472CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D4741C-DAAC-4447-835D-818353A87993}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01C1860-C9D2-43AE-85A7-60EFD6AD744A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F0588-F212-4C61-9FDD-4DE182B8C127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA8C1D1-BC92-41E1-B198-D8F448FEE61B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/HORIZONTINA.xlsx
+++ b/HORIZONTINA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09500A23-A280-43EE-8BCC-77CFE48A8275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EA8F1B-B01F-4A84-A3AB-CA1C780417C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="301">
   <si>
     <t>COMARCA</t>
   </si>
@@ -929,15 +928,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>HORIZONTINA</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,27 +1180,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FAA495F5-F9A2-4A8C-BE08-7C3C4780C470}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3618C3AE-164E-4975-B313-06A1FD4830A8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3929002C-7D95-4D51-85AC-CE705B6A0989}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD6157C-85FB-410C-9210-6888B73B4E53}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA111939-905C-403E-B3EE-AB2B97B71FB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F40DBD-6B66-4F11-A150-D6888D1CAD6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F7CAD7-44AD-475C-B605-B52FBB68FF96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F689F847-F34F-4D80-A8A8-9704BFC552F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F19F9B-410E-F5F5-0EDB-B3D3566052D7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC16B8F-32A1-C18B-8F6D-ACA17D69C5FF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4C7B6B-FB37-7D70-11D1-BC3105992273}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EDFEC2-64FD-E493-F60D-BAA32DBA6E71}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B939D68-AC66-ECE0-5109-E324D55C76C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043F95FC-BB49-FADF-5955-D5537DEB56C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A07D9E-F252-C7C3-7458-B938FF78CC50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672854AC-3E51-F8F7-3DD6-0DA32D2BDC5E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9524F9B0-0BD6-4060-AA01-F404C3B54EF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34ECE092-3B4A-9DB0-4D71-EDA85C96119D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC46546E-141F-43C3-90E6-21C26EB7FA01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72BBE98-0930-4849-823F-DCEBECD0C410}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE62BD9-6196-415D-A886-F0EA975472CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481DB41F-B0C3-4D05-8B38-309EDF45754C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1592,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01C1860-C9D2-43AE-85A7-60EFD6AD744A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3490CDB-C052-4E0B-A215-084C0EF1DD1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA8C1D1-BC92-41E1-B198-D8F448FEE61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3CAD83-B28B-4DB9-9DC8-7EF5EE112920}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1942,98 +1917,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5498,52 +5473,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="32">
-        <v>19</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.2564475598465809E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/HORIZONTINA.xlsx
+++ b/HORIZONTINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EA8F1B-B01F-4A84-A3AB-CA1C780417C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{446407E2-CEAD-43D9-84B4-814B698BA663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{3618C3AE-164E-4975-B313-06A1FD4830A8}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4FCE4C5F-4CA7-4C65-A57E-8A24739BF77E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1215,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD6157C-85FB-410C-9210-6888B73B4E53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C7B4AC-824A-4D81-9E82-8E449AC64F64}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F40DBD-6B66-4F11-A150-D6888D1CAD6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DFACC3-DEB9-44D9-878A-5AF9A235CCC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F689F847-F34F-4D80-A8A8-9704BFC552F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6916E848-64B3-4E72-9AFE-B8151589BFD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC16B8F-32A1-C18B-8F6D-ACA17D69C5FF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2362B77A-6732-8D4B-AF97-7462D638BF04}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EDFEC2-64FD-E493-F60D-BAA32DBA6E71}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AE093A-575D-4085-ACBC-2F6E5EFCE356}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043F95FC-BB49-FADF-5955-D5537DEB56C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9B6057-42CE-2174-4A3B-A08D7FBE0BAD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672854AC-3E51-F8F7-3DD6-0DA32D2BDC5E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C89917-C161-7D9B-0DB5-A7739BEAC228}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34ECE092-3B4A-9DB0-4D71-EDA85C96119D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1A475E-770E-FB34-3F64-9AE19FCD0481}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72BBE98-0930-4849-823F-DCEBECD0C410}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2BD464-D8F3-4C8F-8677-5A8DB756E370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481DB41F-B0C3-4D05-8B38-309EDF45754C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CA016F-341D-4D76-948B-36DD8644F93D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,50 +1574,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3490CDB-C052-4E0B-A215-084C0EF1DD1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1905,7 +1861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3CAD83-B28B-4DB9-9DC8-7EF5EE112920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7266A99D-652B-4907-8F76-1E86A302F4C6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
